--- a/WppRegpack/TestResource/Regression/DS_HK_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_HK_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="93" activeTab="95"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="161" activeTab="164"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -174,10 +174,13 @@
     <sheet name="BlockCompanyVendor" sheetId="124" r:id="rId160"/>
     <sheet name="Banking Reconciliation MPL" sheetId="147" r:id="rId161"/>
     <sheet name="PurchaseOrderMPL" sheetId="149" r:id="rId162"/>
+    <sheet name="TrailBalanceDetailReport" sheetId="169" r:id="rId163"/>
+    <sheet name="ProfitAndLossReport" sheetId="170" r:id="rId164"/>
+    <sheet name="BalanceSheetReport" sheetId="171" r:id="rId165"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -356,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8761" uniqueCount="2359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8776" uniqueCount="2363">
   <si>
     <t>Description</t>
   </si>
@@ -7450,13 +7453,24 @@
   </si>
   <si>
     <t>1672100011</t>
+  </si>
+  <si>
+    <t>PeriodFrom</t>
+  </si>
+  <si>
+    <t>PeriodTo</t>
+  </si>
+  <si>
+    <t>2021-01</t>
+  </si>
+  <si>
+    <t>2021-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8244,14 +8258,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8412,16 +8426,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="23.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="88" width="28.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="88" width="28.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="88" width="25.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8948,7 +8962,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9010,9 +9024,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9066,18 +9080,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -9260,9 +9274,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9317,9 +9331,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9379,7 +9393,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9471,10 +9485,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="14.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="88" width="12.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9552,10 +9566,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="72" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="72" width="11.7109375" collapsed="true"/>
-    <col min="3" max="8" bestFit="true" customWidth="true" style="72" width="9.7109375" collapsed="true"/>
-    <col min="9" max="16384" style="72" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="72" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="72" customWidth="1" collapsed="1"/>
+    <col min="3" max="8" width="9.7109375" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="8.7109375" style="72" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -9682,10 +9696,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="72" width="23.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="72" width="32.5703125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="72" width="19.0" collapsed="true"/>
-    <col min="5" max="16384" style="72" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="23" style="72" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="19" style="72" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.7109375" style="72" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9813,9 +9827,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="72" width="17.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="72" width="17.0" collapsed="true"/>
-    <col min="4" max="16384" style="72" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="72" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="17" style="72" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.7109375" style="72" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -9956,11 +9970,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="37" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="26.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="19" width="31.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="90" width="31.0" collapsed="true"/>
-    <col min="6" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="31" style="90" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10269,10 +10283,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="72" width="22.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="72" width="19.140625" collapsed="true"/>
-    <col min="3" max="8" bestFit="true" customWidth="true" style="72" width="9.7109375" collapsed="true"/>
-    <col min="9" max="16384" style="72" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="22.7109375" style="72" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.140625" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="8" width="9.7109375" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="8.7109375" style="72" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -10404,9 +10418,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="88" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10448,9 +10462,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="88" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10492,9 +10506,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="19.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="88" width="14.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10549,7 +10563,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10623,8 +10637,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10698,8 +10712,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10773,9 +10787,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="72" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="72" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="72" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="72" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="72" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10849,9 +10863,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="72" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="72" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="72" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="72" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="72" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10911,9 +10925,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="72" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="72" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="72" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="72" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="72" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10976,47 +10990,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" style="19" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="19" width="21.140625" collapsed="true"/>
-    <col min="10" max="10" style="19" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="19" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" style="19" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" style="19" width="9.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" style="19" width="9.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" style="19" width="9.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" style="19" width="9.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" style="19" width="9.140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="19" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="19" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="42" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="19" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="21.140625" style="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.140625" style="19" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" style="19" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.140625" style="19" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.140625" style="19" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.140625" style="19" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.140625" style="19" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="9.140625" style="19" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
@@ -11727,15 +11741,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="90" width="25.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="90" width="23.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="90" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="90" width="24.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="33.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="90" width="22.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="90" width="21.140625" collapsed="true"/>
-    <col min="9" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.42578125" style="90" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" style="90" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="90" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.7109375" style="90" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.7109375" style="90" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.140625" style="90" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12395,12 +12409,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="90" width="27.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="90" width="27.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="90" width="28.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="90" width="27.0" collapsed="true"/>
-    <col min="5" max="8" customWidth="true" style="90" width="27.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="27.28515625" style="90" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.85546875" style="90" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.85546875" style="90" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27" style="90" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="27.85546875" style="90" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12977,15 +12991,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="90" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="90" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="90" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="90" width="19.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="90" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="90" width="19.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="90" width="19.140625" collapsed="true"/>
-    <col min="9" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" style="90" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="90" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" style="90" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.140625" style="90" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" style="90" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="90" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" style="90" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13222,9 +13236,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="60.140625" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13289,9 +13303,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="26.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13354,9 +13368,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="41.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13404,42 +13418,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="88" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="88" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="88" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="88" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="88" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="88" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="88" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="88" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="88" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="88" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="88" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="88" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="88" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="88" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="88" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="88" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="88" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="88" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="88" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="88" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="88" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="88" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="88" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="88" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="88" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="88" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="88" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="88" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="88" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="88" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="88" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="88" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="88" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="88" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="88" width="10.7109375" collapsed="true"/>
-    <col min="36" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="88" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -13627,9 +13641,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="2" max="8" bestFit="true" customWidth="true" style="19" width="22.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="8" width="22.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -13859,12 +13873,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="3" max="4" style="19" width="9.140625" collapsed="true"/>
-    <col min="5" max="6" style="90" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="12.0" collapsed="true"/>
-    <col min="8" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="19" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="90" collapsed="1"/>
+    <col min="7" max="7" width="12" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14022,9 +14036,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14114,12 +14128,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.42578125" collapsed="true"/>
-    <col min="3" max="4" style="19" width="9.140625" collapsed="true"/>
-    <col min="5" max="6" style="90" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="17.5703125" collapsed="true"/>
-    <col min="8" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="19" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="90" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -14273,11 +14287,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" style="19" width="9.140625" collapsed="true"/>
-    <col min="4" max="5" style="90" width="9.140625" collapsed="true"/>
-    <col min="6" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="19" collapsed="1"/>
+    <col min="4" max="5" width="9.140625" style="90" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -14389,11 +14403,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" style="19" width="9.140625" collapsed="true"/>
-    <col min="4" max="5" style="90" width="9.140625" collapsed="true"/>
-    <col min="6" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="19" collapsed="1"/>
+    <col min="4" max="5" width="9.140625" style="90" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -14509,9 +14523,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="90" customFormat="1" x14ac:dyDescent="0.25">
@@ -14892,9 +14906,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14965,7 +14979,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15026,7 +15040,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -16039,7 +16053,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -18044,9 +18058,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="18.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="90" width="35.0" collapsed="true"/>
-    <col min="4" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18224,9 +18238,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="19" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -19414,9 +19428,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="18.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="90" width="35.0" collapsed="true"/>
-    <col min="4" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19585,9 +19599,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="19.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="88" width="30.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.7109375" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19771,9 +19785,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="19.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="88" width="30.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.7109375" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19973,9 +19987,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="19.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="88" width="30.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.7109375" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -20175,9 +20189,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="23.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="88" width="28.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20243,9 +20257,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="23.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="88" width="28.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20323,9 +20337,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="23.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="88" width="28.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20403,9 +20417,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="17.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="88" width="29.140625" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="29.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -20486,9 +20500,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="17.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="88" width="39.0" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="39" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -20595,9 +20609,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="17.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="88" width="39.0" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="39" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -20704,7 +20718,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
@@ -21405,9 +21419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="19.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21465,9 +21479,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="24.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21525,9 +21539,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="13.0" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21574,9 +21588,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="31.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21637,9 +21651,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="10.0" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21700,8 +21714,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
-    <col min="2" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21747,9 +21761,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="18.85546875" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="88" width="35.0" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -21929,9 +21943,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="15.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="88" width="25.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -22016,9 +22030,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="15.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="88" width="25.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -22092,9 +22106,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="25.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -22143,9 +22157,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="19.0" collapsed="true"/>
-    <col min="5" max="5" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -22549,9 +22563,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="88" width="18.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -22598,7 +22612,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -22681,14 +22695,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="88" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="88" width="23.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="88" width="28.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="88" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="88" width="14.42578125" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" style="88" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="88" width="21.7109375" collapsed="true"/>
-    <col min="9" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="88" collapsed="1"/>
+    <col min="2" max="2" width="23.85546875" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" style="88" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="10.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.7109375" style="88" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -23301,6 +23315,153 @@
       </c>
       <c r="V9" t="s">
         <v>1097</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2362</v>
       </c>
     </row>
   </sheetData>
@@ -23322,9 +23483,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="18.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -23386,9 +23547,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="18.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -23474,30 +23635,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="19" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="19" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="19" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="19.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="19" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="19" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="19" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="19" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="19" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="19" width="13.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="19" width="20.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="19" width="11.5703125" collapsed="true"/>
-    <col min="24" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="19" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" style="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" style="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -23764,16 +23925,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="19" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="90" width="24.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="19" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="19" width="19.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="19" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="19" width="20.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="19" width="18.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="19" width="21.5703125" collapsed="true"/>
-    <col min="9" max="155" customWidth="true" style="19" width="32.0" collapsed="true"/>
-    <col min="156" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.28515625" style="90" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.5703125" style="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="155" width="32" style="19" customWidth="1" collapsed="1"/>
+    <col min="156" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:156" x14ac:dyDescent="0.25">
@@ -26400,9 +26561,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="32.140625" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -26443,9 +26604,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="45.5703125" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -26498,9 +26659,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="19" width="29.140625" collapsed="true"/>
-    <col min="5" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="29.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -26571,40 +26732,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -26816,8 +26977,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -26877,7 +27038,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -26930,15 +27091,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="90" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="25.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="90" width="12.0" collapsed="true"/>
-    <col min="9" max="17" bestFit="true" customWidth="true" style="19" width="16.7109375" collapsed="true"/>
-    <col min="18" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" style="90" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="90" customWidth="1" collapsed="1"/>
+    <col min="9" max="17" width="16.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -27245,8 +27406,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="2" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -27287,8 +27448,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="2" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -27338,9 +27499,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="19" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="19" width="21.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -27406,7 +27567,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -28585,18 +28746,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="19" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="19" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="11" max="11" style="19" width="9.140625" collapsed="true"/>
-    <col min="12" max="13" style="90" width="9.140625" collapsed="true"/>
-    <col min="14" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" style="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" style="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="19" collapsed="1"/>
+    <col min="12" max="13" width="9.140625" style="90" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -28750,7 +28911,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -28827,12 +28988,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" style="88" width="43.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" hidden="true" style="88" width="43.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="88" width="43.7109375" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" style="88" width="43.85546875" collapsed="true"/>
-    <col min="8" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.85546875" style="88" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="43.7109375" style="88" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.7109375" style="88" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="43.85546875" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -29447,46 +29608,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -29795,11 +29956,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="88" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="88" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -30135,49 +30296,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="19" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="19" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="19" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="19" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="19" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="19" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="19" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="19" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="19" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="19" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="19" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="19" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="19" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="19" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="19" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="19" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="19" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="19" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="19" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -30695,10 +30856,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -30772,43 +30933,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="19" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -31014,9 +31175,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -31069,18 +31230,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="22.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="88" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="88" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="88" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="88" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="88" width="15.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="88" width="20.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="88" width="17.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="88" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="88" width="13.42578125" collapsed="true"/>
-    <col min="12" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" style="88" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" style="88" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" style="88" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" style="88" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" style="88" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" style="88" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -31195,7 +31356,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -33249,43 +33410,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="19" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -33493,9 +33654,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -33548,11 +33709,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="88" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="88" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" style="88" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="88" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -33887,40 +34048,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -34296,10 +34457,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -34373,43 +34534,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="90" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="90" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="90" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -34629,9 +34790,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -34684,20 +34845,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="88" width="23.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="32.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="88" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="88" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="88" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="88" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="88" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="88" width="19.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="88" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="88" width="21.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="88" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="88" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="88" width="18.85546875" collapsed="true"/>
-    <col min="14" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -34860,10 +35021,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -34936,15 +35097,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="19" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="19" width="24.5703125" collapsed="true"/>
-    <col min="10" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="19" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" style="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" style="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35079,11 +35240,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="88" width="25.5703125" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="88" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -35388,10 +35549,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="88" width="10.0" collapsed="true"/>
-    <col min="4" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -35442,43 +35603,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="90" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="90" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="90" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -35684,9 +35845,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -35739,17 +35900,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="90" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="90" width="18.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="25.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="90" width="15.85546875" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" style="90" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.5703125" style="90" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.5703125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" style="90" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="12" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -35931,13 +36092,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -36021,43 +36182,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="90" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="90" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="90" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -36263,9 +36424,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -36321,16 +36482,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -36416,43 +36577,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="90" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="90" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="90" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -36658,9 +36819,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -36716,8 +36877,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36883,17 +37044,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="88" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="88" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="88" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="88" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="88" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="88" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="88" width="12.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="88" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="88" width="12.140625" collapsed="true"/>
-    <col min="11" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -36976,12 +37137,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="88" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="88" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="88" width="32.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" style="88" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -37319,49 +37480,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="90" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="90" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="90" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="90" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="90" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="90" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="90" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="90" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="90" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="90" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="90" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="90" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="90" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="90" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="90" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="90" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="90" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="90" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -37879,10 +38040,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -37953,13 +38114,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="88" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="88" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="88" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="88" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" style="88" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="88" width="17.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="88" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="88" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -38032,18 +38193,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -38172,11 +38333,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="88" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="88" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -38512,49 +38673,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="19" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="19" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="19" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="19" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="19" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="19" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="19" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="19" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="19" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="19" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="19" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="19" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="19" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="19" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="19" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="19" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="19" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="19" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="19" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="19" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -39072,10 +39233,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -39140,43 +39301,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="90" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="90" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="90" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -39382,9 +39543,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="20.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="31.0" collapsed="true"/>
-    <col min="3" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -39459,9 +39620,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -39517,14 +39678,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="10" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" style="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -39621,8 +39782,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="2" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -39678,9 +39839,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="19" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="19" width="21.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -39739,49 +39900,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -40113,43 +40274,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="90" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="90" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="90" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="90" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -40352,9 +40513,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -40410,14 +40571,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="19" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="19" width="12.0" collapsed="true"/>
-    <col min="10" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" style="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -40516,8 +40677,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="2" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -40573,9 +40734,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="19" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="19" width="21.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -40637,13 +40798,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="88" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="88" width="29.28515625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="88" width="29.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="88" width="28.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="88" width="28.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="88" width="28.0" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="29.140625" style="88" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.140625" style="88" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.5703125" style="88" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28" style="88" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -41373,49 +41534,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -41746,18 +41907,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="19" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="19" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="19" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="19" width="19.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="19" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="19" width="30.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="19" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="19" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="19" width="23.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="19" collapsed="1"/>
+    <col min="2" max="2" width="21" style="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" style="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" style="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -41900,12 +42061,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="88" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="88" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="88" width="32.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" style="88" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -42239,49 +42400,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="90" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="90" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="90" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="90" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="90" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="90" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="90" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="90" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="90" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="90" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="90" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="90" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="90" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="90" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="90" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="90" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="90" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="90" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -42799,10 +42960,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -42867,13 +43028,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="88" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="88" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="88" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="88" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" style="88" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="88" width="17.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="88" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="88" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -42946,12 +43107,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="88" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="88" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="88" width="32.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" style="88" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -43285,49 +43446,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="90" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="90" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="90" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="90" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="90" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="90" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="90" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="90" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="90" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="90" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="90" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="90" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="90" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="90" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="90" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="90" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="90" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="90" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -43845,10 +44006,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -43913,12 +44074,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="88" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="88" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="88" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="88" width="32.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" style="88" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" style="88" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="88" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -44255,11 +44416,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="90" width="24.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="90" width="24.140625" collapsed="true"/>
-    <col min="4" max="8" customWidth="true" style="90" width="24.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" style="90" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="90" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="24.5703125" style="90" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -45041,49 +45202,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="90" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="90" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="90" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="90" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="90" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="90" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="90" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="90" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="90" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="90" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="90" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="90" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="90" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="90" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="90" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="90" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="90" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="90" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="90" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="90" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="90" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -45601,10 +45762,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="90" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="90" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -45669,13 +45830,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" style="88" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="88" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="88" width="19.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="88" width="13.5703125" collapsed="true"/>
-    <col min="7" max="11" style="88" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="88" width="17.85546875" collapsed="true"/>
-    <col min="13" max="16384" style="88" width="9.140625" collapsed="true"/>
+    <col min="1" max="3" width="9.140625" style="88" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.140625" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="11" width="9.140625" style="88" collapsed="1"/>
+    <col min="12" max="12" width="17.85546875" style="88" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -45790,11 +45951,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
-    <col min="3" max="4" style="19" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" style="90" width="9.140625" collapsed="true"/>
-    <col min="6" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="19" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="90" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -45909,9 +46070,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="27.5703125" collapsed="true"/>
-    <col min="3" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -45974,13 +46135,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" style="19" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="19.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="16.5703125" collapsed="true"/>
-    <col min="7" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="19" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -46157,20 +46318,20 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="19" width="22.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="19" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="19" width="12.42578125" collapsed="true"/>
-    <col min="7" max="7" style="19" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="19" width="12.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="19" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="15.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="19" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -46346,7 +46507,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" style="88" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" width="9.140625" style="88" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -46395,17 +46556,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -46567,17 +46728,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
